--- a/Queries/Queries.xlsx
+++ b/Queries/Queries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/course/Documents/GitHub/sql_insights/Queries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807234C2-BCB4-FF4E-A24E-3EF0C4F222A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254CA558-213B-E941-BF01-4ABABCAD51F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query_1" sheetId="1" r:id="rId1"/>
@@ -5222,7 +5222,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
@@ -5922,8 +5922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EDB1DE-77FF-2A43-9DF0-9E206E19EE51}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6062,7 +6062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
